--- a/Lista Batedores.xlsx
+++ b/Lista Batedores.xlsx
@@ -99,9 +99,6 @@
     <t>Toney - Mbuembo</t>
   </si>
   <si>
-    <t>Maupass - Gross</t>
-  </si>
-  <si>
     <t>Jorginho - Mount</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Milner - Salah</t>
   </si>
   <si>
-    <t>KDB - Mahrez</t>
-  </si>
-  <si>
     <t>CR7 - Bruno Fernandes</t>
   </si>
   <si>
@@ -147,18 +141,12 @@
     <t>Jimenez - Neves</t>
   </si>
   <si>
-    <t xml:space="preserve">Oodegard - Cedric - Partney - Martinelli - Pepe </t>
-  </si>
-  <si>
     <t>Coutinho - Douglas Luiz - Bailey - Digne</t>
   </si>
   <si>
     <t>Billing - Stanislas - Christie</t>
   </si>
   <si>
-    <t>Mbuembo - Ghoddas - Canos</t>
-  </si>
-  <si>
     <t>Mac Allister - Moder - Trossard - March</t>
   </si>
   <si>
@@ -253,6 +241,18 @@
   </si>
   <si>
     <t>Oodegard - Saka - Martinelli - Zinchenko</t>
+  </si>
+  <si>
+    <t>Oodegard - Martinelli</t>
+  </si>
+  <si>
+    <t>Mbuembo -  Canos</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Haaland - KDB - Mahrez</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,10 +858,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -872,10 +872,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -886,10 +886,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -900,10 +900,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -925,13 +925,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,13 +939,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -953,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,13 +967,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -981,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,13 +995,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1009,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1037,13 +1037,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,13 +1065,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1079,13 +1079,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,13 +1093,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,13 +1107,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,13 +1121,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
